--- a/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3678,18 +3678,14 @@
     <t>;Clear configuration</t>
   </si>
   <si>
+    <t>"Write-data"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Write-data"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3761,6 +3757,10 @@
   </si>
   <si>
     <t>change test' changed"</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4777,7 +4777,7 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4909,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4950,13 +4950,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>822</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>823</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5533,7 +5533,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5558,7 +5558,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>317</v>
@@ -5567,10 +5567,10 @@
         <v>319</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5623,7 +5623,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5670,7 +5670,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>310</v>
@@ -5745,7 +5745,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>317</v>
@@ -5757,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5772,7 +5772,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>317</v>
@@ -5784,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5811,7 +5811,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5855,7 +5855,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>317</v>
@@ -6586,7 +6586,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -6830,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -6915,15 +6915,15 @@
         <v>797</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J81" s="20" t="b">
         <v>1</v>
@@ -7028,7 +7028,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>197</v>
@@ -7357,7 +7357,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>19</v>
@@ -7381,10 +7381,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>829</v>
       </c>
       <c r="F101" s="20" t="s">
         <v>578</v>
@@ -7393,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7407,10 +7407,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>829</v>
       </c>
       <c r="F102" s="20" t="s">
         <v>184</v>
@@ -7431,7 +7431,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>585</v>
@@ -7455,10 +7455,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>829</v>
       </c>
       <c r="F104" s="20" t="s">
         <v>99</v>
@@ -7482,7 +7482,7 @@
         <v>797</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F105" s="20">
         <v>3</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
@@ -3690,10 +3690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InputCell</t>
   </si>
   <si>
@@ -3760,6 +3756,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4776,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4909,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4950,13 +4950,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>821</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>822</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5533,7 +5533,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5570,7 +5570,7 @@
         <v>815</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5623,7 +5623,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5784,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5810,8 +5810,8 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>816</v>
+      <c r="H35" s="11" t="s">
+        <v>835</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -6586,7 +6586,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -6830,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -6915,15 +6915,15 @@
         <v>797</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J81" s="20" t="b">
         <v>1</v>
@@ -7028,7 +7028,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>197</v>
@@ -7357,7 +7357,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>19</v>
@@ -7381,10 +7381,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>827</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>828</v>
       </c>
       <c r="F101" s="20" t="s">
         <v>578</v>
@@ -7393,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7407,10 +7407,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>827</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>828</v>
       </c>
       <c r="F102" s="20" t="s">
         <v>184</v>
@@ -7431,7 +7431,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>585</v>
@@ -7455,10 +7455,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>827</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>828</v>
       </c>
       <c r="F104" s="20" t="s">
         <v>99</v>
@@ -7482,7 +7482,7 @@
         <v>797</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F105" s="20">
         <v>3</v>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.130_UserCanEditActionSetIfHaveRightToAllActionType.xlsx
@@ -3646,9 +3646,6 @@
     <t>"Write file testing"</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>"test"</t>
   </si>
   <si>
@@ -3760,6 +3757,10 @@
   </si>
   <si>
     <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\test.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4777,7 +4778,7 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4849,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4909,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4940,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>577</v>
@@ -4950,13 +4951,13 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>820</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>821</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5309,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5340,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5487,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5516,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5533,7 +5534,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>317</v>
@@ -5558,7 +5559,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>317</v>
@@ -5567,10 +5568,10 @@
         <v>319</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5623,7 +5624,7 @@
         <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -5670,7 +5671,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>310</v>
@@ -5745,7 +5746,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>317</v>
@@ -5757,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="5"/>
@@ -5772,7 +5773,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>317</v>
@@ -5784,7 +5785,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5811,7 +5812,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5855,7 +5856,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>317</v>
@@ -6010,7 +6011,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -6112,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -6138,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6368,7 +6369,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6398,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6424,7 +6425,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6450,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6476,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6502,7 +6503,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -6586,7 +6587,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -6659,7 +6660,7 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>795</v>
@@ -6830,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -6915,15 +6916,15 @@
         <v>797</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J81" s="20" t="b">
         <v>1</v>
@@ -6938,7 +6939,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -7028,7 +7029,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>197</v>
@@ -7226,7 +7227,7 @@
         <v>56</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -7274,7 +7275,7 @@
         <v>56</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -7357,7 +7358,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>19</v>
@@ -7381,10 +7382,10 @@
         <v>100</v>
       </c>
       <c r="D101" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="F101" s="20" t="s">
         <v>578</v>
@@ -7393,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -7407,10 +7408,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="F102" s="20" t="s">
         <v>184</v>
@@ -7431,7 +7432,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>585</v>
@@ -7455,10 +7456,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="F104" s="20" t="s">
         <v>99</v>
@@ -7482,7 +7483,7 @@
         <v>797</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F105" s="20">
         <v>3</v>
